--- a/sampledata/DIP-chloride_sample.xlsx
+++ b/sampledata/DIP-chloride_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292593F2-B062-AF40-8375-ED52482E86C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6638F1F-738C-914E-91E5-90BE34828AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="500" windowWidth="23720" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10220" yWindow="500" windowWidth="23720" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - DIP-chloride_origin_0206" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="180">
   <si>
     <t>smiles</t>
   </si>
@@ -687,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2045,29 +2045,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="38.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="38.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="200" style="1" customWidth="1"/>
     <col min="10" max="10" width="87" style="1" customWidth="1"/>
-    <col min="11" max="11" width="66.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="68.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="68.59765625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.5" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.5" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.25" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.25" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.25" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.25" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.25" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.25" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.25" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.25" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.25" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.25" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.25" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.25" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.25" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.25" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18.25" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18.25" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18.25" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18.25" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18.25" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18.25" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.25" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18.25" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.25" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.25" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.25" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.25" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.25" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18.25" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.25" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.25" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18.25" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18.25" customHeight="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="18.25" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="18.25" customHeight="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="18.25" customHeight="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18.25" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18.25" customHeight="1">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="18.25" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="18.25" customHeight="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="18.25" customHeight="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="18.25" customHeight="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3641,7 +3641,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="18.25" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="18.25" customHeight="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="18.25" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="18.25" customHeight="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="18.25" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="18.25" customHeight="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="18.25" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="18.25" customHeight="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="18.25" customHeight="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" ref="E52:E93" si="2">273+D52</f>
+        <f t="shared" ref="E52:E92" si="2">273+D52</f>
         <v>293</v>
       </c>
       <c r="F52" s="4">
@@ -3969,7 +3969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="18.25" customHeight="1">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="18.25" customHeight="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="18.25" customHeight="1">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>293</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" ref="F55:F93" si="3">50+C55/2</f>
+        <f t="shared" ref="F55:F92" si="3">50+C55/2</f>
         <v>95.5</v>
       </c>
       <c r="G55" s="9"/>
@@ -4073,7 +4073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="18.25" customHeight="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="18.25" customHeight="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="18.25" customHeight="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="18.25" customHeight="1">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="18.25" customHeight="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="18.25" customHeight="1">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="18.25" customHeight="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="18.25" customHeight="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="18.25" customHeight="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="18.25" customHeight="1">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="18.25" customHeight="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="18.25" customHeight="1">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="18.25" customHeight="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="18.25" customHeight="1">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="18.25" customHeight="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="18.25" customHeight="1">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="18.25" customHeight="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="18.25" customHeight="1">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="18.25" customHeight="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="18.25" customHeight="1">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="18.25" customHeight="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="18.25" customHeight="1">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="18.25" customHeight="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="18.25" customHeight="1">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="18.25" customHeight="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="18.25" customHeight="1">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="18.25" customHeight="1">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4943,15 +4943,15 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
-        <v>82</v>
+    <row r="83" spans="1:12" ht="18.25" customHeight="1">
+      <c r="A83" s="4">
+        <v>83</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C83" s="7">
-        <v>92</v>
+        <v>-95</v>
       </c>
       <c r="D83" s="9">
         <v>-25</v>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="F83" s="4">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>2.5</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -4973,15 +4973,15 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>83</v>
+    <row r="84" spans="1:12" ht="18.25" customHeight="1">
+      <c r="A84" s="7">
+        <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C84" s="7">
-        <v>-95</v>
+        <v>81</v>
       </c>
       <c r="D84" s="9">
         <v>-25</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="F84" s="4">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>90.5</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -5003,15 +5003,15 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
-        <v>84</v>
+    <row r="85" spans="1:12" ht="18.25" customHeight="1">
+      <c r="A85" s="4">
+        <v>85</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85" s="7">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D85" s="9">
         <v>-25</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="F85" s="4">
         <f t="shared" si="3"/>
-        <v>90.5</v>
+        <v>68</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -5033,15 +5033,15 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="7">
-        <v>36</v>
+    <row r="86" spans="1:12" ht="18.25" customHeight="1">
+      <c r="A86" s="7">
+        <v>86</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="10">
+        <v>-21</v>
       </c>
       <c r="D86" s="9">
         <v>-25</v>
@@ -5052,26 +5052,26 @@
       </c>
       <c r="F86" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="8" t="s">
+        <v>39.5</v>
+      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-    </row>
-    <row r="87" spans="1:12" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
-        <v>86</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C87" s="10">
-        <v>-21</v>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" ht="23" customHeight="1">
+      <c r="A87" s="4">
+        <v>87</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="13">
+        <v>-17</v>
       </c>
       <c r="D87" s="9">
         <v>-25</v>
@@ -5082,26 +5082,28 @@
       </c>
       <c r="F87" s="4">
         <f t="shared" si="3"/>
-        <v>39.5</v>
-      </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-    </row>
-    <row r="88" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>87</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>172</v>
+        <v>41.5</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+    </row>
+    <row r="88" spans="1:12" ht="23" customHeight="1">
+      <c r="A88" s="7">
+        <v>88</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="C88" s="13">
-        <v>-17</v>
+        <v>-28</v>
       </c>
       <c r="D88" s="9">
         <v>-25</v>
@@ -5110,30 +5112,26 @@
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="13">
         <f t="shared" si="3"/>
-        <v>41.5</v>
+        <v>36</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="14" t="s">
-        <v>175</v>
-      </c>
+      <c r="H88" s="13"/>
       <c r="I88" s="13"/>
-      <c r="J88" s="16" t="s">
-        <v>178</v>
-      </c>
+      <c r="J88" s="13"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
-        <v>88</v>
+    <row r="89" spans="1:12" ht="23" customHeight="1">
+      <c r="A89" s="4">
+        <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C89" s="13">
-        <v>-28</v>
+        <v>-53</v>
       </c>
       <c r="D89" s="9">
         <v>-25</v>
@@ -5144,7 +5142,7 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>23.5</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -5153,26 +5151,26 @@
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>89</v>
+    <row r="90" spans="1:12" ht="23" customHeight="1">
+      <c r="A90" s="7">
+        <v>90</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C90" s="13">
-        <v>-53</v>
+        <v>-98</v>
       </c>
       <c r="D90" s="9">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="2"/>
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="F90" s="13">
         <f t="shared" si="3"/>
-        <v>23.5</v>
+        <v>1</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -5181,26 +5179,26 @@
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
-        <v>90</v>
+    <row r="91" spans="1:12" ht="23" customHeight="1">
+      <c r="A91" s="4">
+        <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C91" s="13">
-        <v>-98</v>
+        <v>-39</v>
       </c>
       <c r="D91" s="9">
-        <v>23</v>
+        <v>-25</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="F91" s="13">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>30.5</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -5209,26 +5207,26 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>91</v>
+    <row r="92" spans="1:12" ht="23" customHeight="1">
+      <c r="A92" s="7">
+        <v>92</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C92" s="13">
-        <v>-39</v>
+        <v>-97</v>
       </c>
       <c r="D92" s="9">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" si="2"/>
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="F92" s="13">
         <f t="shared" si="3"/>
-        <v>30.5</v>
+        <v>1.5</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -5237,27 +5235,13 @@
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
-        <v>92</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="13">
-        <v>-97</v>
-      </c>
-      <c r="D93" s="9">
-        <v>23</v>
-      </c>
-      <c r="E93" s="4">
-        <f t="shared" si="2"/>
-        <v>296</v>
-      </c>
-      <c r="F93" s="13">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
+    <row r="93" spans="1:12" ht="23" customHeight="1">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
@@ -5265,7 +5249,7 @@
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="23" customHeight="1">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -5279,7 +5263,7 @@
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="23" customHeight="1">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -5293,7 +5277,7 @@
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="23" customHeight="1">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -5307,7 +5291,7 @@
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="23" customHeight="1">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -5321,7 +5305,7 @@
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="23" customHeight="1">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -5335,7 +5319,7 @@
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="23" customHeight="1">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -5349,7 +5333,7 @@
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="23" customHeight="1">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -5363,7 +5347,7 @@
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="23" customHeight="1">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -5377,7 +5361,7 @@
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="23" customHeight="1">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -5391,7 +5375,7 @@
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="23" customHeight="1">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -5405,7 +5389,7 @@
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="23" customHeight="1">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5419,7 +5403,7 @@
       <c r="K104" s="13"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="23" customHeight="1">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -5433,7 +5417,7 @@
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="23" customHeight="1">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -5447,7 +5431,7 @@
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="23" customHeight="1">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -5461,7 +5445,7 @@
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="23" customHeight="1">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -5475,7 +5459,7 @@
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="23" customHeight="1">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -5489,7 +5473,7 @@
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="23" customHeight="1">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -5502,20 +5486,6 @@
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
       <c r="L110" s="13"/>
-    </row>
-    <row r="111" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -5600,13 +5570,12 @@
     <hyperlink ref="J80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="J81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="J82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J87" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J26" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J88" r:id="rId87" xr:uid="{05138A00-8FD9-C444-88EF-86592327BE81}"/>
+    <hyperlink ref="J83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J26" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J87" r:id="rId86" xr:uid="{05138A00-8FD9-C444-88EF-86592327BE81}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/sampledata/DIP-chloride_sample.xlsx
+++ b/sampledata/DIP-chloride_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6638F1F-738C-914E-91E5-90BE34828AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85D4D08-1F5D-384E-9675-A9F2F94EDC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="500" windowWidth="23720" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13880" yWindow="500" windowWidth="23720" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - DIP-chloride_origin_0206" sheetId="1" r:id="rId1"/>
@@ -726,6 +726,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2047,8 +2048,8 @@
   </sheetPr>
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -3609,9 +3610,6 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="C43" s="7">
         <v>-20</v>
       </c>
@@ -3639,7 +3637,9 @@
         <v>87</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="L43" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="18.25" customHeight="1">
       <c r="A44" s="4">
